--- a/ListadoFacturas.xlsx
+++ b/ListadoFacturas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Rut</t>
   </si>
@@ -27,6 +27,21 @@
   </si>
   <si>
     <t>Fecha Comprobante</t>
+  </si>
+  <si>
+    <t>13228704-K</t>
+  </si>
+  <si>
+    <t>16/01/2023</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>14/01/2023</t>
   </si>
 </sst>
 </file>
@@ -87,7 +102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -110,6 +125,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ListadoFacturas.xlsx
+++ b/ListadoFacturas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="143">
   <si>
     <t>Rut</t>
   </si>
@@ -29,19 +29,418 @@
     <t>Fecha Comprobante</t>
   </si>
   <si>
-    <t>13228704-K</t>
+    <t>12193674-7</t>
   </si>
   <si>
     <t>16/01/2023</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
+    <t>28/12/2022</t>
+  </si>
+  <si>
+    <t>26690520-3</t>
+  </si>
+  <si>
+    <t>17/12/2022</t>
+  </si>
+  <si>
+    <t>8263221-2</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>06/06/2022</t>
+  </si>
+  <si>
+    <t>19199809-K</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>21/12/2022</t>
+  </si>
+  <si>
+    <t>16991037-5</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>15/07/2022</t>
+  </si>
+  <si>
+    <t>10889454-7</t>
+  </si>
+  <si>
+    <t>14/04/2022</t>
+  </si>
+  <si>
+    <t>11735367-2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15/11/2022</t>
+  </si>
+  <si>
+    <t>16686750-9</t>
+  </si>
+  <si>
+    <t>04/10/2022</t>
+  </si>
+  <si>
+    <t>9696709-8</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>02/12/2021</t>
+  </si>
+  <si>
+    <t>18566228-4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>01/12/2022</t>
+  </si>
+  <si>
+    <t>15084943-8</t>
+  </si>
+  <si>
+    <t>13/05/2022</t>
+  </si>
+  <si>
+    <t>20068333-1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>17/11/2022</t>
+  </si>
+  <si>
+    <t>20231692-1</t>
+  </si>
+  <si>
+    <t>29/06/2022</t>
+  </si>
+  <si>
+    <t>13991916-5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>19615425-6</t>
+  </si>
+  <si>
+    <t>01/09/2022</t>
+  </si>
+  <si>
+    <t>5650441-9</t>
+  </si>
+  <si>
+    <t>19/03/2022</t>
+  </si>
+  <si>
+    <t>13020046-K</t>
+  </si>
+  <si>
+    <t>12/05/2022</t>
+  </si>
+  <si>
+    <t>10850968-6</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>28/10/2022</t>
+  </si>
+  <si>
+    <t>7963689-4</t>
+  </si>
+  <si>
+    <t>13/10/2022</t>
+  </si>
+  <si>
+    <t>15100864-K</t>
+  </si>
+  <si>
+    <t>25/11/2022</t>
+  </si>
+  <si>
+    <t>15296641-5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>24/11/2022</t>
+  </si>
+  <si>
+    <t>17568448-4</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>17/08/2022</t>
+  </si>
+  <si>
+    <t>15825097-7</t>
+  </si>
+  <si>
     <t>14/01/2023</t>
+  </si>
+  <si>
+    <t>21166622-6</t>
+  </si>
+  <si>
+    <t>15200939-9</t>
+  </si>
+  <si>
+    <t>08/08/2022</t>
+  </si>
+  <si>
+    <t>11189708-5</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>05/10/2020</t>
+  </si>
+  <si>
+    <t>8913345-9</t>
+  </si>
+  <si>
+    <t>28/08/2022</t>
+  </si>
+  <si>
+    <t>14387718-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>13/01/2023</t>
+  </si>
+  <si>
+    <t>7663545-5</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>02/09/2022</t>
+  </si>
+  <si>
+    <t>19047970-6</t>
+  </si>
+  <si>
+    <t>08/07/2022</t>
+  </si>
+  <si>
+    <t>9747223-8</t>
+  </si>
+  <si>
+    <t>14630538-5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>19169369-8</t>
+  </si>
+  <si>
+    <t>14/12/2022</t>
+  </si>
+  <si>
+    <t>12351324-K</t>
+  </si>
+  <si>
+    <t>17960003-K</t>
+  </si>
+  <si>
+    <t>12/01/2023</t>
+  </si>
+  <si>
+    <t>15201147-4</t>
+  </si>
+  <si>
+    <t>31/05/2021</t>
+  </si>
+  <si>
+    <t>13367390-3</t>
+  </si>
+  <si>
+    <t>10/09/2022</t>
+  </si>
+  <si>
+    <t>19835530-5</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>24/12/2021</t>
+  </si>
+  <si>
+    <t>23873881-4</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>19/10/2022</t>
+  </si>
+  <si>
+    <t>19579857-5</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>03/01/2023</t>
+  </si>
+  <si>
+    <t>16331752-4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>26/12/2022</t>
+  </si>
+  <si>
+    <t>7243045-K</t>
+  </si>
+  <si>
+    <t>15029890-3</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>27/10/2022</t>
+  </si>
+  <si>
+    <t>13231481-0</t>
+  </si>
+  <si>
+    <t>26/09/2022</t>
+  </si>
+  <si>
+    <t>12822565-K</t>
+  </si>
+  <si>
+    <t>05/08/2022</t>
+  </si>
+  <si>
+    <t>14574429-6</t>
+  </si>
+  <si>
+    <t>21/11/2022</t>
+  </si>
+  <si>
+    <t>12060366-3</t>
+  </si>
+  <si>
+    <t>04/07/2022</t>
+  </si>
+  <si>
+    <t>18257726-K</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>06/07/2022</t>
+  </si>
+  <si>
+    <t>8624929-4</t>
+  </si>
+  <si>
+    <t>26/11/2022</t>
+  </si>
+  <si>
+    <t>12089968-6</t>
+  </si>
+  <si>
+    <t>19614443-9</t>
+  </si>
+  <si>
+    <t>22/11/2022</t>
+  </si>
+  <si>
+    <t>17791996-9</t>
+  </si>
+  <si>
+    <t>01/07/2022</t>
+  </si>
+  <si>
+    <t>17537794-8</t>
+  </si>
+  <si>
+    <t>03/12/2022</t>
+  </si>
+  <si>
+    <t>16523072-8</t>
+  </si>
+  <si>
+    <t>10/03/2022</t>
+  </si>
+  <si>
+    <t>13428006-9</t>
+  </si>
+  <si>
+    <t>09/12/2022</t>
+  </si>
+  <si>
+    <t>11832014-K</t>
+  </si>
+  <si>
+    <t>14/11/2022</t>
+  </si>
+  <si>
+    <t>11547761-7</t>
+  </si>
+  <si>
+    <t>10/12/2021</t>
+  </si>
+  <si>
+    <t>17119334-6</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>21/09/2022</t>
+  </si>
+  <si>
+    <t>8702375-3</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>28/01/2022</t>
+  </si>
+  <si>
+    <t>10511842-2</t>
+  </si>
+  <si>
+    <t>07/07/2022</t>
   </si>
 </sst>
 </file>
@@ -102,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -136,10 +535,1013 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
